--- a/.blueprint/website temp.xlsx
+++ b/.blueprint/website temp.xlsx
@@ -16,6 +16,7 @@
     <sheet name="master player" sheetId="1" r:id="rId2"/>
     <sheet name="master player flow" sheetId="3" r:id="rId3"/>
     <sheet name="autoplay system" sheetId="4" r:id="rId4"/>
+    <sheet name="dynamic playlist" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -677,16 +678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267261</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>181535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>603773</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -695,8 +696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="304800"/>
-          <a:ext cx="3998595" cy="2019300"/>
+          <a:off x="5108202" y="607359"/>
+          <a:ext cx="3967218" cy="2064124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,15 +737,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>373716</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104140</xdr:rowOff>
+      <xdr:colOff>514686</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -753,8 +754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4981575" y="400050"/>
-          <a:ext cx="2579370" cy="1228090"/>
+          <a:off x="5214657" y="736227"/>
+          <a:ext cx="2561441" cy="1228090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,15 +815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>392766</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>519766</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -831,8 +832,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="1771650"/>
-          <a:ext cx="2565400" cy="409575"/>
+          <a:off x="5233707" y="2107827"/>
+          <a:ext cx="2547471" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,15 +893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>602316</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>240665</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:colOff>509606</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -909,8 +910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7648575" y="400050"/>
-          <a:ext cx="1126490" cy="1777365"/>
+          <a:off x="7863728" y="736227"/>
+          <a:ext cx="1117525" cy="1777365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171770</xdr:colOff>
+      <xdr:colOff>257736</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>115180</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1057,7 +1058,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="634013" y="2350754"/>
-          <a:ext cx="2563345" cy="476250"/>
+          <a:ext cx="2649311" cy="495540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,15 +1374,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171770</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93010</xdr:rowOff>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>168369</xdr:colOff>
+      <xdr:colOff>470928</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>67555</xdr:rowOff>
+      <xdr:rowOff>77200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1393,8 +1394,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3197358" y="1852334"/>
-          <a:ext cx="601717" cy="736545"/>
+          <a:off x="3283324" y="2009216"/>
+          <a:ext cx="818310" cy="589308"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1550,16 +1551,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>420781</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>118222</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>521074</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93010</xdr:rowOff>
+      <xdr:rowOff>164167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>218515</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1570,7 +1571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3446369" y="1576109"/>
+          <a:off x="3748928" y="1732991"/>
           <a:ext cx="705411" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1683,15 +1684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>255492</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29136</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>603434</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>105336</xdr:rowOff>
+      <xdr:colOff>345139</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87964</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1702,7 +1703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7516904" y="3693460"/>
+          <a:off x="7606551" y="3065930"/>
           <a:ext cx="2163295" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2207,16 +2208,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>603434</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87964</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>182096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>350744</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2228,8 +2229,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9680199" y="2893920"/>
-          <a:ext cx="957545" cy="1028140"/>
+          <a:off x="9769846" y="2893920"/>
+          <a:ext cx="867898" cy="400610"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2330,9 +2331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>255492</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:colOff>345139</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2345,7 +2346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6429095" y="2915211"/>
-          <a:ext cx="1087809" cy="1006849"/>
+          <a:ext cx="1177456" cy="379319"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2380,7 +2381,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100333</xdr:colOff>
+      <xdr:colOff>143316</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>19930</xdr:rowOff>
     </xdr:to>
@@ -2395,7 +2396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1132355" y="1893794"/>
-          <a:ext cx="783331" cy="456960"/>
+          <a:ext cx="826314" cy="456960"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2474,7 +2475,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>168369</xdr:colOff>
+      <xdr:colOff>470928</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>122264</xdr:rowOff>
     </xdr:from>
@@ -2482,7 +2483,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>204747</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7285</xdr:rowOff>
+      <xdr:rowOff>164167</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2494,8 +2495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3799075" y="1119588"/>
-          <a:ext cx="1246613" cy="456521"/>
+          <a:off x="4101634" y="1119588"/>
+          <a:ext cx="944054" cy="613403"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2741,6 +2742,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2748,6 +2752,9 @@
             <a:t>Click a video</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2760,15 +2767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165285</xdr:rowOff>
+      <xdr:colOff>352025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>100928</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50985</xdr:rowOff>
+      <xdr:colOff>114535</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2777,8 +2784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2758889" y="546285"/>
-          <a:ext cx="2182980" cy="457200"/>
+          <a:off x="2801311" y="1662071"/>
+          <a:ext cx="2211795" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2819,6 +2826,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2826,6 +2836,9 @@
             <a:t>Load two link; the clicked one and the one after that. Blank if none</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2837,29 +2850,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485140</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>97492</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491379</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545129</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>135703</xdr:rowOff>
+      <xdr:rowOff>143995</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="7" idx="1"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1695375" y="736283"/>
-          <a:ext cx="217470" cy="923420"/>
+        <a:xfrm flipH="1">
+          <a:off x="1096497" y="945889"/>
+          <a:ext cx="53750" cy="766930"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2887,16 +2900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>97492</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>93793</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198345</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2907,7 +2920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1912845" y="1511113"/>
+          <a:off x="803463" y="1712819"/>
           <a:ext cx="586068" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2917,13 +2930,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2968,16 +2981,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234203</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16487</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:rowOff>70277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>89460</xdr:colOff>
+      <xdr:colOff>484066</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>25736</xdr:rowOff>
+      <xdr:rowOff>93772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2986,8 +2999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6285379" y="573741"/>
-          <a:ext cx="1670610" cy="594995"/>
+          <a:off x="6752023" y="696206"/>
+          <a:ext cx="1692222" cy="594995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3028,6 +3041,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3035,6 +3051,9 @@
             <a:t>Put clicked link in player,</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3051,6 +3070,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3058,6 +3080,9 @@
             <a:t>Ready to be played</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3070,15 +3095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>100928</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12885</xdr:rowOff>
+      <xdr:colOff>114535</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>439832</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>162206</xdr:rowOff>
+      <xdr:colOff>403013</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121742</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3089,9 +3114,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4941869" y="774885"/>
-          <a:ext cx="338904" cy="1292321"/>
+        <a:xfrm flipV="1">
+          <a:off x="5013106" y="1191546"/>
+          <a:ext cx="288478" cy="699125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3120,15 +3145,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>439832</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>122705</xdr:rowOff>
+      <xdr:colOff>403013</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>145116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96969</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>52946</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3139,8 +3164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5280773" y="1837205"/>
-          <a:ext cx="867372" cy="460001"/>
+          <a:off x="5301584" y="961545"/>
+          <a:ext cx="874576" cy="460001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3207,15 +3232,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>89460</xdr:colOff>
+      <xdr:colOff>484066</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>106736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>524996</xdr:colOff>
+      <xdr:rowOff>93129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484175</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109239</xdr:rowOff>
+      <xdr:rowOff>177275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3227,8 +3252,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7955989" y="868736"/>
-          <a:ext cx="435536" cy="2503"/>
+          <a:off x="8444245" y="909558"/>
+          <a:ext cx="612430" cy="84146"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3256,16 +3281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>524996</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>484175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>159123</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>580203</xdr:colOff>
+      <xdr:rowOff>145516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539382</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54348</xdr:rowOff>
+      <xdr:rowOff>40741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3276,8 +3301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8391525" y="730623"/>
-          <a:ext cx="660325" cy="276225"/>
+          <a:off x="9056675" y="771445"/>
+          <a:ext cx="667528" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3327,16 +3352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>401918</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>93650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170597</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>130362</xdr:rowOff>
+      <xdr:rowOff>103148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3345,8 +3370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9401736" y="593912"/>
-          <a:ext cx="1892300" cy="488950"/>
+          <a:off x="10503114" y="621127"/>
+          <a:ext cx="1913912" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3387,6 +3412,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3394,6 +3422,9 @@
             <a:t>Player has finish play video</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3405,16 +3436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>581958</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150271</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>608319</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>432279</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163879</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3423,8 +3454,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12248029" y="2678206"/>
-          <a:ext cx="1041400" cy="329565"/>
+          <a:off x="9180819" y="1603243"/>
+          <a:ext cx="1048603" cy="329565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3432,15 +3463,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3465,6 +3496,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3472,6 +3506,9 @@
             <a:t>Do nothing</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3484,33 +3521,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>401918</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>64453</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>57630</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438284</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="3"/>
+          <a:stCxn id="20" idx="2"/>
           <a:endCxn id="26" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11294036" y="838387"/>
-          <a:ext cx="1477888" cy="775260"/>
+        <a:xfrm flipH="1">
+          <a:off x="11079416" y="1110077"/>
+          <a:ext cx="380654" cy="999030"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3533,16 +3573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>319405</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360190</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3553,8 +3593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12516971" y="1613647"/>
-          <a:ext cx="509905" cy="268941"/>
+          <a:off x="10769654" y="2109107"/>
+          <a:ext cx="619524" cy="344981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3563,13 +3603,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3591,6 +3631,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3604,16 +3647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>605116</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257920</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>102496</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>405811</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51412</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3622,8 +3665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2420469" y="2812676"/>
-          <a:ext cx="2073275" cy="337820"/>
+          <a:off x="1018132" y="4175791"/>
+          <a:ext cx="2094887" cy="337820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3664,6 +3707,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3671,6 +3717,9 @@
             <a:t>Put after link in standby system</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3682,16 +3731,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454492</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>50985</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254785</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219673</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>233280</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3703,8 +3752,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3480080" y="1003485"/>
-          <a:ext cx="370299" cy="912721"/>
+          <a:off x="1479428" y="2119271"/>
+          <a:ext cx="2427781" cy="751836"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3732,16 +3781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247836</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>465043</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44528</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3752,8 +3801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3081617" y="1916206"/>
-          <a:ext cx="796925" cy="448235"/>
+          <a:off x="1077364" y="2871107"/>
+          <a:ext cx="804128" cy="448235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3811,16 +3860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>357729</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>36607</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130468</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>398550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36606</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3829,8 +3878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9166412" y="2487707"/>
-          <a:ext cx="2083435" cy="977900"/>
+          <a:off x="10539932" y="2923135"/>
+          <a:ext cx="2105047" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3871,6 +3920,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3878,6 +3930,9 @@
             <a:t>Fetch link after that was stored in standby system,</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3894,6 +3949,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3901,6 +3959,9 @@
             <a:t>put it in player</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:effectLst/>
             <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -3912,16 +3973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>565897</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438284</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>130362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>60886</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>103148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>256536</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15209</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3932,9 +3993,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10247779" y="1082862"/>
-          <a:ext cx="100107" cy="878168"/>
+        <a:xfrm>
+          <a:off x="11460070" y="1110077"/>
+          <a:ext cx="1655216" cy="1055061"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3962,29 +4023,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124086</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295358</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="3"/>
-          <a:endCxn id="32" idx="1"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4493744" y="2976657"/>
-          <a:ext cx="4672668" cy="4929"/>
+          <a:off x="3113019" y="4074941"/>
+          <a:ext cx="2693232" cy="269760"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4012,16 +4073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>568299</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>15209</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>557093</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4032,8 +4093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9950823" y="1961030"/>
-          <a:ext cx="593912" cy="280147"/>
+          <a:off x="12814728" y="2165138"/>
+          <a:ext cx="601115" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4042,13 +4103,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -4070,6 +4131,9 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4083,16 +4147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179296</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>102085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>135703</xdr:rowOff>
+      <xdr:colOff>352025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121742</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4103,9 +4167,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2498913" y="774885"/>
-          <a:ext cx="259976" cy="884818"/>
+        <a:xfrm>
+          <a:off x="1389531" y="1861409"/>
+          <a:ext cx="1382965" cy="19657"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4133,16 +4197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431519</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>454492</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254785</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228612</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120862</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4153,9 +4217,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3457107" y="2364441"/>
-          <a:ext cx="22973" cy="448235"/>
+        <a:xfrm>
+          <a:off x="1479428" y="3319342"/>
+          <a:ext cx="586148" cy="856449"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4183,29 +4247,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>526248</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>565897</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>398550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>256536</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119156</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="2"/>
-          <a:endCxn id="32" idx="0"/>
+          <a:endCxn id="32" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10208130" y="2241177"/>
-          <a:ext cx="39649" cy="246530"/>
+          <a:off x="12644979" y="2445285"/>
+          <a:ext cx="470307" cy="966800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4234,15 +4298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96969</xdr:colOff>
+      <xdr:colOff>52946</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109239</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234203</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>162206</xdr:rowOff>
+      <xdr:rowOff>177275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16487</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>184617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4254,8 +4318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6148145" y="871239"/>
-          <a:ext cx="137234" cy="1195967"/>
+          <a:off x="6176160" y="993704"/>
+          <a:ext cx="575863" cy="197842"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4283,16 +4347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>580203</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>539382</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>76387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>324971</xdr:colOff>
+      <xdr:rowOff>49173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>93650</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>106736</xdr:rowOff>
+      <xdr:rowOff>93129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4304,8 +4368,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9051850" y="838387"/>
-          <a:ext cx="349886" cy="30349"/>
+          <a:off x="9724203" y="865602"/>
+          <a:ext cx="778911" cy="43956"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4333,29 +4397,768 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>61258</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>64453</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>432279</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>189597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360190</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131669</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="21" idx="0"/>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10229422" y="1768026"/>
+          <a:ext cx="540232" cy="513572"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295358</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582709</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5806251" y="3822808"/>
+          <a:ext cx="899672" cy="504265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>fetch after link</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>582709</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130468</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6705923" y="3412085"/>
+          <a:ext cx="3834009" cy="662856"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130468</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="1"/>
+          <a:endCxn id="86" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8650942" y="2672603"/>
+          <a:ext cx="1766526" cy="729877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6237676" y="2386853"/>
+          <a:ext cx="2413266" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>increment the standby index number, matching</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> the json section numbering</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114535</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4955476" y="1881066"/>
+          <a:ext cx="1282200" cy="791537"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="TextBox 97"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2394857" y="2884715"/>
+          <a:ext cx="2544535" cy="503465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>initiate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> an increment index number matching the after link section number</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491379</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601916</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="98" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1096497" y="2009999"/>
+          <a:ext cx="2531007" cy="865111"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205618</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>40741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9390439" y="1047670"/>
+          <a:ext cx="314682" cy="555573"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>34019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="Straight Arrow Connector 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="3"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4881762" y="2672603"/>
+          <a:ext cx="1355914" cy="454240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="TextBox 148"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715501" y="4852147"/>
+          <a:ext cx="2039470" cy="593912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>if standby number is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> max, terminate auto play function</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>567068</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="Straight Arrow Connector 152"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="149" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12768729" y="1882588"/>
-          <a:ext cx="3195" cy="795618"/>
+          <a:off x="10735236" y="3891430"/>
+          <a:ext cx="723950" cy="960717"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="TextBox 153"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5995147" y="5289176"/>
+          <a:ext cx="2095500" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>delete standby number system</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Arrow Connector 155"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="1"/>
+          <a:endCxn id="154" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8090647" y="5149103"/>
+          <a:ext cx="1624854" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4366,13 +5169,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4647,6 +5450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4674,10 +5478,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4701,10 +5506,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,10 +5534,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,4 +5558,16 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/.blueprint/website temp.xlsx
+++ b/.blueprint/website temp.xlsx
@@ -5075,16 +5075,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317767</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>153681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5093,8 +5093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5995147" y="5289176"/>
-          <a:ext cx="2095500" cy="324971"/>
+          <a:off x="6440981" y="4836139"/>
+          <a:ext cx="2124316" cy="324971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5137,15 +5137,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33619</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>151279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>72838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5156,9 +5156,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8090647" y="5149103"/>
-          <a:ext cx="1624854" cy="302559"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8565297" y="4998625"/>
+          <a:ext cx="1265465" cy="160083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5537,8 +5537,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/.blueprint/website temp.xlsx
+++ b/.blueprint/website temp.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="default player" sheetId="2" r:id="rId1"/>
-    <sheet name="master player" sheetId="1" r:id="rId2"/>
-    <sheet name="master player flow" sheetId="3" r:id="rId3"/>
-    <sheet name="autoplay system" sheetId="4" r:id="rId4"/>
-    <sheet name="dynamic playlist" sheetId="5" r:id="rId5"/>
+    <sheet name="master player flow" sheetId="3" r:id="rId2"/>
+    <sheet name="autoplay system" sheetId="4" r:id="rId3"/>
+    <sheet name="dynamic playlist" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,18 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>All vid in one – view</t>
-  </si>
-  <si>
-    <t>Default vid player layout</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Universal player flowchart</t>
   </si>
   <si>
     <t>Autoplay system</t>
+  </si>
+  <si>
+    <t>Default video player layout</t>
   </si>
 </sst>
 </file>
@@ -113,563 +109,132 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>362164</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>115897</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="609600"/>
-          <a:ext cx="3410164" cy="887422"/>
+          <a:off x="619125" y="628650"/>
+          <a:ext cx="885825" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+            <a:rPr lang="en-MY" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Default player (husk)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Initial</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> = load page and insert default layout from external</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Initial</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> do -&gt; check embed data and fetch data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Continue</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> -&gt; insert data into husk accordingly</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Use</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> = user interact the page normally afterward</a:t>
+            <a:t>open player page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6804</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>23131</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166006</xdr:rowOff>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="616404" y="651781"/>
-          <a:ext cx="3900351" cy="2619375"/>
+          <a:off x="2590801" y="638176"/>
+          <a:ext cx="1809750" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" u="sng">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:rPr>
-            <a:t>Universal player (husk)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Initial</a:t>
+            <a:t>load</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:rPr>
-            <a:t> = load default layout into husk</a:t>
+            <a:t> the default page layout and fill in the custom data for that current page</a:t>
           </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Initial do</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> -&gt; check initial setting (default); if false, do =&gt; (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" u="sng">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>custom input</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" u="sng">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Custom input</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> -&gt; get clicked data from external directory, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" u="sng">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>matching fetch data </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>into husk</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" u="sng">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Default setting</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> -&gt; put predetermine data into husk</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Task</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> -&gt; take child input from user and fetch data accordingly</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> =&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>show fetched data</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Prompt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> -&gt; output data</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-MY" sz="1000">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -678,25 +243,310 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>267261</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>181535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>603773</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>150159</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5108202" y="607359"/>
+          <a:off x="1428751" y="1943100"/>
+          <a:ext cx="971550" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>current</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> page custom data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="871538"/>
+          <a:ext cx="1085851" cy="100013"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1914526" y="1304926"/>
+          <a:ext cx="1581150" cy="638174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="676276"/>
+          <a:ext cx="942975" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>loading page done</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4400551" y="923926"/>
+          <a:ext cx="685799" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>309618</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="619125"/>
           <a:ext cx="3967218" cy="2064124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -736,25 +586,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373716</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>106455</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>514686</xdr:colOff>
+      <xdr:rowOff>128868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>229496</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>14493</xdr:rowOff>
+      <xdr:rowOff>23458</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5214657" y="736227"/>
+          <a:off x="6812055" y="747993"/>
           <a:ext cx="2561441" cy="1228090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,25 +664,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>392766</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>158003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>519766</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>186578</xdr:rowOff>
+      <xdr:rowOff>166968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5233707" y="2107827"/>
+          <a:off x="6831105" y="2119593"/>
           <a:ext cx="2547471" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -892,25 +742,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>602316</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317126</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119903</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>509606</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>182768</xdr:rowOff>
+      <xdr:rowOff>128868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215451</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1233</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7863728" y="736227"/>
+          <a:off x="9461126" y="747993"/>
           <a:ext cx="1117525" cy="1777365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -971,7 +821,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -982,7 +832,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464526</xdr:colOff>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>98180</xdr:rowOff>
     </xdr:to>
@@ -995,24 +845,33 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="615461" y="635243"/>
-          <a:ext cx="1673469" cy="466725"/>
+          <a:off x="612444" y="628779"/>
+          <a:ext cx="1236527" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5B9BD5"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F4D78"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -1028,7 +887,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>Input from index/home = navigation</a:t>
+            <a:t>Input from index/navigation</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1038,15 +897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28895</xdr:colOff>
+      <xdr:colOff>6483</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19930</xdr:rowOff>
+      <xdr:rowOff>31136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1057,24 +916,33 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="634013" y="2350754"/>
-          <a:ext cx="2649311" cy="495540"/>
+          <a:off x="611601" y="2361960"/>
+          <a:ext cx="2649311" cy="641216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472C4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F3763"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -1090,7 +958,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>store input from user in Local Storage and send it to [Master Player] in next step</a:t>
+            <a:t>store input from user in Local Storage and send it to [Master Player], directly go to next phase</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1125,18 +993,27 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5B9BD5"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F4D78"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -1212,15 +1089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464526</xdr:colOff>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>55318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>591669</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>82083</xdr:rowOff>
+      <xdr:rowOff>171730</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1232,8 +1109,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2279879" y="862142"/>
-          <a:ext cx="732261" cy="26765"/>
+          <a:off x="1848971" y="862142"/>
+          <a:ext cx="1185581" cy="116412"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1287,18 +1164,27 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472C4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F3763"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -1324,15 +1210,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>527237</xdr:colOff>
+      <xdr:colOff>516031</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>98180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>235927</xdr:colOff>
+      <xdr:colOff>20473</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>31375</xdr:rowOff>
+      <xdr:rowOff>177052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1344,8 +1230,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1132355" y="1095504"/>
-          <a:ext cx="313807" cy="314195"/>
+          <a:off x="1121149" y="1095504"/>
+          <a:ext cx="109559" cy="459872"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1374,15 +1260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>59392</xdr:rowOff>
+      <xdr:rowOff>81804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>470928</xdr:colOff>
+      <xdr:colOff>496140</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>77200</xdr:rowOff>
+      <xdr:rowOff>161244</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1394,8 +1280,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3283324" y="2009216"/>
-          <a:ext cx="818310" cy="589308"/>
+          <a:off x="3260912" y="2031628"/>
+          <a:ext cx="865934" cy="650940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1449,18 +1335,27 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5B9BD5"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F4D78"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -1486,15 +1381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1120</xdr:colOff>
+      <xdr:colOff>12326</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>31375</xdr:rowOff>
+      <xdr:rowOff>177052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>448237</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1505,8 +1400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="606238" y="1409699"/>
-          <a:ext cx="1052234" cy="484095"/>
+          <a:off x="617444" y="1555376"/>
+          <a:ext cx="1007409" cy="428066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1542,7 +1437,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>if user click an input promt</a:t>
+            <a:t>input promt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1552,15 +1447,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>118222</xdr:colOff>
+      <xdr:colOff>73398</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>164167</xdr:rowOff>
+      <xdr:rowOff>186579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>218515</xdr:colOff>
+      <xdr:colOff>313764</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>59392</xdr:rowOff>
+      <xdr:rowOff>81804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1571,8 +1466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3748928" y="1732991"/>
-          <a:ext cx="705411" cy="276225"/>
+          <a:off x="3704104" y="1755403"/>
+          <a:ext cx="845484" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1608,7 +1503,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>Get data</a:t>
+            <a:t>Give data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1617,16 +1512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>591669</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>18490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100851</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>141754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1637,8 +1532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3012140" y="634814"/>
-          <a:ext cx="1324535" cy="508186"/>
+          <a:off x="3034552" y="758078"/>
+          <a:ext cx="753037" cy="440951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1674,7 +1569,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>if open without user input promt</a:t>
+            <a:t>no promt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1709,18 +1604,27 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4472C4"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F3763"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -1771,18 +1675,27 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="5B9BD5"/>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="1F4D78"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -2211,11 +2124,11 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>87964</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182096</xdr:rowOff>
+      <xdr:rowOff>36419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>350744</xdr:colOff>
+      <xdr:colOff>328333</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
@@ -2229,8 +2142,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9769846" y="2893920"/>
-          <a:ext cx="867898" cy="400610"/>
+          <a:off x="9769846" y="2748243"/>
+          <a:ext cx="845487" cy="546287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2259,15 +2172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>350744</xdr:colOff>
+      <xdr:colOff>328333</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>93569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>433109</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>48746</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>455520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124946</xdr:rowOff>
+      <xdr:rowOff>169769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2278,7 +2191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10637744" y="2760570"/>
+          <a:off x="10615333" y="2614893"/>
           <a:ext cx="1315011" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2288,16 +2201,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2375,15 +2290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>527237</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>516031</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>143316</xdr:colOff>
+      <xdr:colOff>120904</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>19930</xdr:rowOff>
+      <xdr:rowOff>31136</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2395,8 +2310,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1132355" y="1893794"/>
-          <a:ext cx="826314" cy="456960"/>
+          <a:off x="1121149" y="1983442"/>
+          <a:ext cx="815108" cy="378518"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2407,13 +2322,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2424,10 +2339,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>100851</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>82083</xdr:rowOff>
+      <xdr:rowOff>171730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -2445,8 +2360,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4336675" y="888907"/>
-          <a:ext cx="709013" cy="230681"/>
+          <a:off x="3787589" y="978554"/>
+          <a:ext cx="1258099" cy="141034"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2475,7 +2390,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>470928</xdr:colOff>
+      <xdr:colOff>496140</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>122264</xdr:rowOff>
     </xdr:from>
@@ -2483,7 +2398,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>204747</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>164167</xdr:rowOff>
+      <xdr:rowOff>186579</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2495,8 +2410,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4101634" y="1119588"/>
-          <a:ext cx="944054" cy="613403"/>
+          <a:off x="4126846" y="1119588"/>
+          <a:ext cx="918842" cy="635815"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2628,7 +2543,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>455520</xdr:colOff>
+      <xdr:colOff>433109</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
@@ -2636,7 +2551,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>560296</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182096</xdr:rowOff>
+      <xdr:rowOff>36419</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2648,8 +2563,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11952755" y="2129118"/>
-          <a:ext cx="709894" cy="764802"/>
+          <a:off x="11930344" y="2129118"/>
+          <a:ext cx="732305" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2678,7 +2593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3096,12 +3011,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114535</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184617</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>403013</xdr:colOff>
+      <xdr:colOff>552692</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>121742</xdr:rowOff>
     </xdr:to>
@@ -3115,8 +3030,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5013106" y="1191546"/>
-          <a:ext cx="288478" cy="699125"/>
+          <a:off x="5013106" y="1232368"/>
+          <a:ext cx="438157" cy="658303"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3145,15 +3060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>403013</xdr:colOff>
+      <xdr:colOff>552692</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>145116</xdr:rowOff>
+      <xdr:rowOff>185938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>52946</xdr:colOff>
+      <xdr:colOff>202625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:rowOff>74439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3164,7 +3079,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5301584" y="961545"/>
+          <a:off x="5451263" y="1002367"/>
           <a:ext cx="874576" cy="460001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3647,16 +3562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>405811</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120862</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>256131</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>51412</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>77682</xdr:rowOff>
+      <xdr:colOff>514054</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132111</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3665,7 +3580,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1018132" y="4175791"/>
+          <a:off x="1480774" y="4039720"/>
           <a:ext cx="2094887" cy="337820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3674,15 +3589,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3732,7 +3647,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>254785</xdr:colOff>
+      <xdr:colOff>137271</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>159842</xdr:rowOff>
     </xdr:from>
@@ -3740,7 +3655,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>233280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3752,8 +3667,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1479428" y="2119271"/>
-          <a:ext cx="2427781" cy="751836"/>
+          <a:off x="1361914" y="2119271"/>
+          <a:ext cx="2545295" cy="738229"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3782,15 +3697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>465043</xdr:colOff>
+      <xdr:colOff>192900</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>44528</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26413</xdr:rowOff>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3801,8 +3716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1077364" y="2871107"/>
-          <a:ext cx="804128" cy="448235"/>
+          <a:off x="805221" y="2857500"/>
+          <a:ext cx="1113386" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3851,7 +3766,25 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>link after</a:t>
+            <a:t>link after,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>initiate standby system</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4006,63 +3939,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>51412</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295358</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99272</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3113019" y="4074941"/>
-          <a:ext cx="2693232" cy="269760"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4198,15 +4081,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>254785</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228612</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120862</xdr:rowOff>
+      <xdr:colOff>137271</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>78932</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175291</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4218,8 +4101,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1479428" y="3319342"/>
-          <a:ext cx="586148" cy="856449"/>
+          <a:off x="1361914" y="3619500"/>
+          <a:ext cx="1166304" cy="420220"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4298,15 +4181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>52946</xdr:colOff>
+      <xdr:colOff>202625</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>177275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>16487</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184617</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34939</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4318,8 +4201,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6176160" y="993704"/>
-          <a:ext cx="575863" cy="197842"/>
+          <a:off x="6325839" y="993704"/>
+          <a:ext cx="426184" cy="238664"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4425,114 +4308,6 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295358</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>148879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>582709</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5806251" y="3822808"/>
-          <a:ext cx="899672" cy="504265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>fetch after link</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>582709</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>130468</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>20012</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="32" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6705923" y="3412085"/>
-          <a:ext cx="3834009" cy="662856"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4633,16 +4408,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
           <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4652,7 +4429,7 @@
           <a:r>
             <a:rPr lang="en-MY" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>increment the standby index number, matching</a:t>
@@ -4660,14 +4437,14 @@
           <a:r>
             <a:rPr lang="en-MY" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> the json section numbering</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4755,16 +4532,18 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
           <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4774,7 +4553,7 @@
           <a:r>
             <a:rPr lang="en-MY" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>initiate</a:t>
@@ -4782,14 +4561,14 @@
           <a:r>
             <a:rPr lang="en-MY" sz="1100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> an increment index number matching the after link section number</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5127,7 +4906,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>delete standby number system</a:t>
+            <a:t>delete standby system</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5164,6 +4943,57 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514054</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>130468</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3575661" y="3412085"/>
+          <a:ext cx="6964271" cy="796545"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5453,64 +5283,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:D2"/>
-  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,24 +5302,53 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5560,7 +5363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/.blueprint/website temp.xlsx
+++ b/.blueprint/website temp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="default player" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Universal player flowchart</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Default video player layout</t>
+  </si>
+  <si>
+    <t>Dynamic playlist</t>
   </si>
 </sst>
 </file>
@@ -79,12 +82,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -244,15 +250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>86287</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>448237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175372</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -261,8 +267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428751" y="1943100"/>
-          <a:ext cx="971550" cy="476250"/>
+          <a:off x="1296522" y="1648946"/>
+          <a:ext cx="967068" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -350,13 +356,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -367,66 +373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1914526" y="1304926"/>
-          <a:ext cx="1581150" cy="638174"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>310402</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38659</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>115421</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -435,8 +391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="676276"/>
-          <a:ext cx="942975" cy="495300"/>
+          <a:off x="3335990" y="1950945"/>
+          <a:ext cx="938493" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -478,29 +434,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>445436</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174531</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1121</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4400551" y="923926"/>
-          <a:ext cx="685799" cy="47625"/>
+        <a:xfrm>
+          <a:off x="3471024" y="1302125"/>
+          <a:ext cx="334213" cy="648820"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -511,13 +467,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -528,16 +484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>309618</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>556149</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159124</xdr:rowOff>
+      <xdr:rowOff>136713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -546,8 +502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="619125"/>
-          <a:ext cx="3967218" cy="2064124"/>
+          <a:off x="5087472" y="593913"/>
+          <a:ext cx="3940324" cy="2064124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,16 +542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>106455</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>341779</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>128868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>229496</xdr:colOff>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>23458</xdr:rowOff>
+      <xdr:rowOff>34664</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -604,8 +560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6812055" y="747993"/>
-          <a:ext cx="2561441" cy="1228090"/>
+          <a:off x="5182720" y="756398"/>
+          <a:ext cx="2543512" cy="1228090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -664,14 +620,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>125505</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349623</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>166968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>234576</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>458694</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>5043</xdr:rowOff>
     </xdr:to>
@@ -682,8 +638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6831105" y="2119593"/>
-          <a:ext cx="2547471" cy="409575"/>
+          <a:off x="5190564" y="2116792"/>
+          <a:ext cx="2529542" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,16 +698,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317126</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>128868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>215451</xdr:colOff>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450775</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1233</xdr:rowOff>
+      <xdr:rowOff>12439</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -760,8 +716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9461126" y="747993"/>
-          <a:ext cx="1117525" cy="1777365"/>
+          <a:off x="7813862" y="756398"/>
+          <a:ext cx="1108560" cy="1777365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,6 +774,349 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>51549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9733431" y="600637"/>
+          <a:ext cx="2884393" cy="3892922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-MY"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180414</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9862296" y="763121"/>
+          <a:ext cx="424704" cy="3539938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="vert270" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>109817</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10396817" y="756398"/>
+          <a:ext cx="2108948" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Detail</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>110937</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>113180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10397937" y="1301004"/>
+          <a:ext cx="2085415" cy="3013261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="107000"/>
+            </a:lnSpc>
+            <a:spcAft>
+              <a:spcPts val="800"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Playlist / directory</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:effectLst/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569821</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80122</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1780056" y="968750"/>
+          <a:ext cx="792816" cy="680196"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -929,15 +1228,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1138,16 +1437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>230282</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>77881</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
+      <xdr:colOff>588870</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>436470</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148478</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1158,7 +1457,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2045635" y="3639111"/>
+          <a:off x="4824694" y="2193552"/>
           <a:ext cx="2268070" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1259,56 +1558,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>81804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>496140</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161244</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3075" idx="3"/>
-          <a:endCxn id="3084" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3260912" y="2031628"/>
-          <a:ext cx="865934" cy="650940"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>151279</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1446,72 +1695,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>73398</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>186579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>313764</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>81804</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3084" name="Text Box 12"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3704104" y="1755403"/>
-          <a:ext cx="845484" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Give data</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1720,29 +1903,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>345140</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>500182</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>54028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>500182</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>102534</xdr:rowOff>
+      <xdr:colOff>512670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53228</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3078" idx="2"/>
-          <a:endCxn id="3080" idx="0"/>
+          <a:endCxn id="3083" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4580964" y="1622852"/>
-          <a:ext cx="1365277" cy="810506"/>
+        <a:xfrm>
+          <a:off x="5946241" y="1622852"/>
+          <a:ext cx="12488" cy="570700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1779,23 +1962,23 @@
       <xdr:rowOff>122264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204506</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151279</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142314</xdr:rowOff>
+      <xdr:rowOff>182656</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3078" idx="3"/>
-          <a:endCxn id="3086" idx="1"/>
+          <a:endCxn id="3081" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6846794" y="1119588"/>
-          <a:ext cx="619124" cy="20050"/>
+          <a:ext cx="1776132" cy="60392"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1823,148 +2006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204506</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>189939</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>175932</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>94689</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3086" name="Text Box 14"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7465918" y="996763"/>
-          <a:ext cx="576543" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="538135"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>If true</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>42581</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>102534</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>42581</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3080" name="Text Box 8"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4278405" y="2433358"/>
-          <a:ext cx="605117" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>If false</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>372875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27175</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139234</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1976,8 +2027,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6745941" y="1770530"/>
-          <a:ext cx="2703699" cy="968469"/>
+          <a:off x="8718177" y="1770530"/>
+          <a:ext cx="731463" cy="699528"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2005,16 +2056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>77881</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>61072</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>436470</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217955</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139234</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2025,9 +2076,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4313705" y="2738999"/>
-          <a:ext cx="1798543" cy="1138237"/>
+        <a:xfrm>
+          <a:off x="7092764" y="2431677"/>
+          <a:ext cx="991720" cy="38381"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2055,16 +2106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>61072</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>217955</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>41462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12887</xdr:rowOff>
+      <xdr:rowOff>124946</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2075,7 +2126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6112248" y="2562786"/>
+          <a:off x="8084484" y="2293845"/>
           <a:ext cx="633693" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2239,29 +2290,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>377919</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>534802</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216552</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>12887</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>345139</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3094" idx="2"/>
-          <a:endCxn id="3089" idx="1"/>
+          <a:endCxn id="3089" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429095" y="2915211"/>
-          <a:ext cx="1177456" cy="379319"/>
+          <a:off x="8401331" y="2646270"/>
+          <a:ext cx="286868" cy="419660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2389,159 +2440,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>496140</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>122264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>204747</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>186579</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3084" idx="0"/>
-          <a:endCxn id="3078" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4126846" y="1119588"/>
-          <a:ext cx="918842" cy="635815"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>154082</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7284</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>345140</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165287</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3080" idx="2"/>
-          <a:endCxn id="3083" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3179670" y="2719108"/>
-          <a:ext cx="1401294" cy="920003"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>175932</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142314</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>151279</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>182656</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3086" idx="3"/>
-          <a:endCxn id="3081" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8042461" y="1139638"/>
-          <a:ext cx="580465" cy="40342"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>433109</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -2582,6 +2480,57 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>204747</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161244</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3078" idx="1"/>
+          <a:endCxn id="3075" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3260912" y="1119588"/>
+          <a:ext cx="1784776" cy="1562980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2681,16 +2630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114535</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>583347</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345856</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>159842</xdr:rowOff>
+      <xdr:rowOff>64592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2699,7 +2648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2801311" y="1662071"/>
+          <a:off x="3644954" y="1566821"/>
           <a:ext cx="2211795" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2766,15 +2715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>491379</xdr:colOff>
+      <xdr:colOff>548731</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>545129</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5125</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143995</xdr:rowOff>
+      <xdr:rowOff>157602</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2785,9 +2734,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1096497" y="945889"/>
-          <a:ext cx="53750" cy="766930"/>
+        <a:xfrm>
+          <a:off x="1161052" y="955494"/>
+          <a:ext cx="681037" cy="780537"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2815,16 +2764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198345</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320809</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>143995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>179296</xdr:colOff>
+      <xdr:rowOff>157602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>301761</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>60175</xdr:rowOff>
+      <xdr:rowOff>73782</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2835,8 +2784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="803463" y="1712819"/>
-          <a:ext cx="586068" cy="297180"/>
+          <a:off x="1545452" y="1736031"/>
+          <a:ext cx="593273" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3009,29 +2958,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114535</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34939</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552692</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345856</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16487</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121742</xdr:rowOff>
+      <xdr:rowOff>26492</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
+          <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5013106" y="1232368"/>
-          <a:ext cx="438157" cy="658303"/>
+          <a:off x="5856749" y="993704"/>
+          <a:ext cx="895274" cy="801717"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3059,101 +3008,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>552692</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>202625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>74439</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5451263" y="1002367"/>
-          <a:ext cx="874576" cy="460001"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> c</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>licked link</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>484066</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>93129</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>484175</xdr:colOff>
+      <xdr:rowOff>119609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12007</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>177275</xdr:rowOff>
     </xdr:to>
@@ -3162,13 +3024,13 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="19" idx="1"/>
+          <a:endCxn id="20" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8444245" y="909558"/>
-          <a:ext cx="612430" cy="84146"/>
+          <a:off x="8444245" y="936038"/>
+          <a:ext cx="752583" cy="57666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3196,87 +3058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>484175</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12007</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539382</xdr:colOff>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>557892</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>40741</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9056675" y="771445"/>
-          <a:ext cx="667528" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Check if</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>93650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>185698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>170597</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>103148</xdr:rowOff>
+      <xdr:rowOff>130362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3285,8 +3076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10503114" y="621127"/>
-          <a:ext cx="1913912" cy="488950"/>
+          <a:off x="9196828" y="734785"/>
+          <a:ext cx="2382850" cy="402506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3334,7 +3125,29 @@
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Player has finish play video</a:t>
+            <a:t>check if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>layer has finish play video</a:t>
           </a:r>
           <a:endParaRPr lang="en-MY" sz="1100">
             <a:solidFill>
@@ -3351,16 +3164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>608319</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>432279</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>163879</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118461</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>554743</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>55022</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3369,7 +3182,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9180819" y="1603243"/>
+          <a:off x="12364890" y="732386"/>
           <a:ext cx="1048603" cy="329565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3436,28 +3249,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>57630</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>103148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438284</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:colOff>557892</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118461</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119609</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11079416" y="1110077"/>
-          <a:ext cx="380654" cy="999030"/>
+        <a:xfrm flipV="1">
+          <a:off x="11579678" y="897169"/>
+          <a:ext cx="785212" cy="38869"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3488,90 +3301,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360190</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>367392</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>113659</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10769654" y="2109107"/>
-          <a:ext cx="619524" cy="344981"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>false</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>256131</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514054</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>132111</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>52024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309946</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77684</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3580,7 +3319,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1480774" y="4039720"/>
+          <a:off x="4950595" y="2651793"/>
           <a:ext cx="2094887" cy="337820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3646,29 +3385,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137271</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464602</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>159842</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>233280</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>64592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487146</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120864</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="31" idx="0"/>
+          <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1361914" y="2119271"/>
-          <a:ext cx="2545295" cy="738229"/>
+        <a:xfrm>
+          <a:off x="4750852" y="2024021"/>
+          <a:ext cx="1247187" cy="627772"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3679,13 +3418,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3696,113 +3435,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>192900</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="805221" y="2857500"/>
-          <a:ext cx="1113386" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>If </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>link after,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>initiate standby system</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>130468</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>398550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>36606</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398551</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3811,7 +3453,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10539932" y="2923135"/>
+          <a:off x="7478325" y="3344956"/>
           <a:ext cx="2105047" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3906,29 +3548,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438284</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>570670</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>103148</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>256536</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15209</xdr:rowOff>
+      <xdr:rowOff>130362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>591110</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52027</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="41" idx="0"/>
+          <a:endCxn id="32" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11460070" y="1110077"/>
-          <a:ext cx="1655216" cy="1055061"/>
+        <a:xfrm flipH="1">
+          <a:off x="8530849" y="1137291"/>
+          <a:ext cx="1857404" cy="2207665"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3956,90 +3598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>568299</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15209</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>557093</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104856</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 2"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12814728" y="2165138"/>
-          <a:ext cx="601115" cy="280147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="107000"/>
-            </a:lnSpc>
-            <a:spcAft>
-              <a:spcPts val="800"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>true</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>179296</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>301761</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>102085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>352025</xdr:colOff>
+      <xdr:rowOff>26492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>583347</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121742</xdr:rowOff>
+      <xdr:rowOff>115692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4050,9 +3618,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1389531" y="1861409"/>
-          <a:ext cx="1382965" cy="19657"/>
+        <a:xfrm flipV="1">
+          <a:off x="2138725" y="1795421"/>
+          <a:ext cx="1506229" cy="89200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4080,266 +3648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>137271</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>78932</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29616</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130468</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>175291</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1361914" y="3619500"/>
-          <a:ext cx="1166304" cy="420220"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>398550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>256536</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119156</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="2"/>
-          <a:endCxn id="32" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12644979" y="2445285"/>
-          <a:ext cx="470307" cy="966800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>202625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>16487</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34939</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6325839" y="993704"/>
-          <a:ext cx="426184" cy="238664"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539382</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>49173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>93650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>93129</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9724203" y="865602"/>
-          <a:ext cx="778911" cy="43956"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>432279</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>189597</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360190</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>131669</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="1"/>
-          <a:endCxn id="21" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10229422" y="1768026"/>
-          <a:ext cx="540232" cy="513572"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>151279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>130468</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119156</xdr:rowOff>
+      <xdr:rowOff>1601</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4350,9 +3668,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8650942" y="2672603"/>
-          <a:ext cx="1766526" cy="729877"/>
+        <a:xfrm flipH="1">
+          <a:off x="4315866" y="3833906"/>
+          <a:ext cx="3162459" cy="32124"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4380,16 +3698,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>186500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36821</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29616</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>96851</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4398,8 +3716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6237676" y="2386853"/>
-          <a:ext cx="2413266" cy="571500"/>
+          <a:off x="1873785" y="3580280"/>
+          <a:ext cx="2442081" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4454,29 +3772,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114535</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121742</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>186500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>151279</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33219</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464602</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="86" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
+          <a:stCxn id="86" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4955476" y="1881066"/>
-          <a:ext cx="1282200" cy="791537"/>
+        <a:xfrm flipV="1">
+          <a:off x="3094826" y="2024021"/>
+          <a:ext cx="1656026" cy="1556259"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4504,16 +3822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4522,7 +3840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2394857" y="2884715"/>
+          <a:off x="571500" y="2462893"/>
           <a:ext cx="2544535" cy="503465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4578,16 +3896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>491379</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5125</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>60175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601916</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:rowOff>73782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4599,8 +3917,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1096497" y="2009999"/>
-          <a:ext cx="2531007" cy="865111"/>
+          <a:off x="1842089" y="2033211"/>
+          <a:ext cx="1679" cy="429682"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4628,79 +3946,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205618</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>40741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>520300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>24814</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="Straight Arrow Connector 110"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="0"/>
-          <a:endCxn id="19" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9390439" y="1047670"/>
-          <a:ext cx="314682" cy="555573"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>151279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>186500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>34019</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33219</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="137" name="Straight Arrow Connector 136"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="98" idx="3"/>
-          <a:endCxn id="86" idx="1"/>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4881762" y="2672603"/>
-          <a:ext cx="1355914" cy="454240"/>
+        <a:xfrm>
+          <a:off x="1843768" y="2966358"/>
+          <a:ext cx="1251058" cy="613922"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4729,16 +3997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>489056</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4747,8 +4015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9715501" y="4852147"/>
-          <a:ext cx="2039470" cy="593912"/>
+          <a:off x="10674404" y="3541859"/>
+          <a:ext cx="2061081" cy="593912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4803,29 +4071,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398551</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>36606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>567068</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>264940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>164886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="153" name="Straight Arrow Connector 152"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="2"/>
-          <a:endCxn id="149" idx="0"/>
+          <a:stCxn id="32" idx="3"/>
+          <a:endCxn id="149" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10735236" y="3891430"/>
-          <a:ext cx="723950" cy="960717"/>
+        <a:xfrm>
+          <a:off x="9583372" y="3833906"/>
+          <a:ext cx="1091032" cy="4909"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4854,16 +4122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317767</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>153681</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>535481</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4872,8 +4140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6440981" y="4836139"/>
-          <a:ext cx="2124316" cy="324971"/>
+          <a:off x="12169588" y="1352710"/>
+          <a:ext cx="1587235" cy="375398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4915,29 +4183,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>181696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>151279</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>70838</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="156" name="Straight Arrow Connector 155"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="149" idx="1"/>
-          <a:endCxn id="154" idx="3"/>
+          <a:stCxn id="149" idx="0"/>
+          <a:endCxn id="154" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8565297" y="4998625"/>
-          <a:ext cx="1265465" cy="160083"/>
+        <a:xfrm flipV="1">
+          <a:off x="11704945" y="1728108"/>
+          <a:ext cx="1258261" cy="1813751"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4965,29 +4233,1208 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>514054</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119156</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487146</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>77684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>130468</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>153701</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="3"/>
+          <a:stCxn id="28" idx="2"/>
           <a:endCxn id="32" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5998039" y="2989613"/>
+          <a:ext cx="1480286" cy="844293"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>26627</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectangle 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3660321" y="625929"/>
+          <a:ext cx="652556" cy="469526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>json of list</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157602</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Arrow Connector 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="1"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1842089" y="860692"/>
+          <a:ext cx="1818232" cy="875339"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312670</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464602</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>178892</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Straight Arrow Connector 140"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3986599" y="1095455"/>
+          <a:ext cx="764253" cy="471366"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529168</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4212168" y="635000"/>
+          <a:ext cx="3185583" cy="2719917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="1" u="sng" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>JQuery:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="1" u="sng" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> duplication cycle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="1" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616323" y="627529"/>
+          <a:ext cx="1199030" cy="481853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Call</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> playlist into iFrame</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4487333" y="1357156"/>
+          <a:ext cx="1153584" cy="505511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JQuery : setData</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>json</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120028</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6258361" y="1350807"/>
+          <a:ext cx="773206" cy="505510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JQuery : duplicate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5712262" y="2402791"/>
+          <a:ext cx="1315071" cy="825126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>check if the duplication has reach max number matching json data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332316</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61632</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3575661" y="3412085"/>
-          <a:ext cx="6964271" cy="796545"/>
+          <a:off x="1841500" y="876486"/>
+          <a:ext cx="946149" cy="63"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116417</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120028</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5640917" y="1603562"/>
+          <a:ext cx="617444" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506631</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6369798" y="1856317"/>
+          <a:ext cx="275166" cy="546474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153458</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5064125" y="1862667"/>
+          <a:ext cx="648137" cy="952687"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113677</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>539749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8093510" y="1873623"/>
+          <a:ext cx="1039906" cy="497043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>break JQuery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> cycle</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275166</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>113677</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7027333" y="2122145"/>
+          <a:ext cx="1066177" cy="693209"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416361</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>455083</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2871694" y="1530723"/>
+          <a:ext cx="652556" cy="469526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>json of list</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332316</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2787649" y="631139"/>
+          <a:ext cx="884767" cy="490694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>call module</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32995</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3672416" y="876486"/>
+          <a:ext cx="814917" cy="733426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9789583" y="846666"/>
+          <a:ext cx="2741084" cy="2159000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>note:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-MY" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-MY" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>1) the items position is determent by it position in json list, admin can change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t> displayed items position by simply suffle the data in json.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t>2) if there any new item to be added, just simply add new data in preset format in any position (usually at the end of list) to display it.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>455083</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3524250" y="1609912"/>
+          <a:ext cx="963083" cy="155574"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5284,7 +5731,7 @@
   <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,8 +5759,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5340,8 +5787,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,12 +5812,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/.blueprint/website temp.xlsx
+++ b/.blueprint/website temp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="default player" sheetId="2" r:id="rId1"/>
@@ -5453,6 +5453,385 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21168</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635001" y="3640668"/>
+          <a:ext cx="994833" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>main page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25402</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2480735" y="3634318"/>
+          <a:ext cx="994833" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>playlist page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82552</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>188384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>188383</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4379385" y="3670301"/>
+          <a:ext cx="994833" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>modules js</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563035</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>330201</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6087535" y="3706285"/>
+          <a:ext cx="994833" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>json</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25402</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1629834" y="3920068"/>
+          <a:ext cx="850901" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463551</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129118</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5374218" y="3956051"/>
+          <a:ext cx="713317" cy="35984"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82552</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>93134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3475568" y="3920068"/>
+          <a:ext cx="903817" cy="35983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -5787,7 +6166,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -5814,8 +6193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/.blueprint/website temp.xlsx
+++ b/.blueprint/website temp.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="default player" sheetId="2" r:id="rId1"/>
     <sheet name="master player flow" sheetId="3" r:id="rId2"/>
     <sheet name="autoplay system" sheetId="4" r:id="rId3"/>
     <sheet name="dynamic playlist" sheetId="5" r:id="rId4"/>
+    <sheet name="master plylst flow" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5820,6 +5821,383 @@
         </a:prstGeom>
         <a:ln>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="361950"/>
+          <a:ext cx="7124700" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>iframe in Master parent page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038851" y="1476375"/>
+          <a:ext cx="1047750" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>individual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t> playlist components</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914901" y="895350"/>
+          <a:ext cx="1047750" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>individual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t> playlist components</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609851" y="1228725"/>
+          <a:ext cx="1047750" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>directory menu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657726" y="771525"/>
+          <a:ext cx="2667000" cy="2676526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3657601" y="2109788"/>
+          <a:ext cx="1000125" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6193,7 +6571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -6214,4 +6592,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>